--- a/Projekt/Dokumente/ZeitplanCB.xlsx
+++ b/Projekt/Dokumente/ZeitplanCB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bweina\Documents\VorIPA\Projekt\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bweina\Documents\VorIPA\connectivityboard\Projekt\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
   <si>
     <t>soll</t>
   </si>
@@ -1083,7 +1083,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="5" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P10" sqref="P10"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
@@ -1197,12 +1197,14 @@
       </c>
       <c r="E4" s="19">
         <f t="shared" ref="E4:E39" si="0">COUNTA(F4:AA4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
@@ -1235,12 +1237,14 @@
       </c>
       <c r="E5" s="20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="33">
         <v>1</v>
       </c>
-      <c r="G5" s="42"/>
+      <c r="G5" s="42">
+        <v>1</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -1584,8 +1588,8 @@
       <c r="J13" s="8">
         <v>1</v>
       </c>
-      <c r="K13" s="8">
-        <v>1</v>
+      <c r="K13" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -1657,7 +1661,7 @@
       </c>
       <c r="E15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1666,7 +1670,9 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="M15" s="8">
+        <v>1</v>
+      </c>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
@@ -1739,16 +1745,20 @@
       </c>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="K17" s="8">
+        <v>1</v>
+      </c>
       <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="M17" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>

--- a/Projekt/Dokumente/ZeitplanCB.xlsx
+++ b/Projekt/Dokumente/ZeitplanCB.xlsx
@@ -1083,7 +1083,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="5" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
@@ -1170,7 +1170,7 @@
         <v>44235</v>
       </c>
       <c r="Q3" s="38">
-        <v>9</v>
+        <v>44236</v>
       </c>
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1843,8 +1843,12 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+      <c r="N19" s="8">
+        <v>1</v>
+      </c>
+      <c r="O19" s="8">
+        <v>1</v>
+      </c>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
